--- a/課題/最終課題/03_スケジュール/学籍番号_名前_スケジュール.xlsx
+++ b/課題/最終課題/03_スケジュール/学籍番号_名前_スケジュール.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程表" sheetId="1" r:id="rId1"/>
+    <sheet name="進捗基準" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">工程表!$B$1:$BV$121</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -303,6 +304,191 @@
     <t>テスト</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>画面レイアウト完成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用する部品</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(記載した部品数/記載すべき部品数)×0.7</t>
+    <rPh sb="1" eb="3">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フェーズ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>完成した作業</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コーディング完成</t>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パーセント算出方法</t>
+    <rPh sb="5" eb="7">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フィーリング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動作確認完了</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(実装メソッド数/実装予定のメソッド数)×0.8</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常系の確認がすべて終われば20、それ以外は０</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト作業</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>（行ったテストの数/テスト件数）×０．８</t>
+    <rPh sb="1" eb="2">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不具合修正</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(修正した不具合の数/修正すべき不具合の数)×0.2</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -517,6 +703,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,19 +897,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -718,167 +935,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1059,146 +1115,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,7 +1402,7 @@
   </sheetPr>
   <dimension ref="A1:BV121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -11578,91 +11494,91 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="N1:BV4">
-    <cfRule type="timePeriod" dxfId="38" priority="19" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="20" priority="19" timePeriod="today">
       <formula>FLOOR(N1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:XFD6 B7:B13 D7:XFD7 B15 D15:J15 L15:XFD15 D8:J13 L8:XFD13 K8:K20 B22:XFD121">
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>$B5&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$K5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:BV13 N22:BV121">
-    <cfRule type="expression" dxfId="35" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>N$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>AND($I5&lt;=N$3,$J5&gt;=N$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>AND($G5&lt;=N$3,$H5&gt;=N$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:BV2">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:BV1">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:BV13 N22:BV121">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="12" priority="27">
       <formula>WEEKDAY(N$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:BV6 B7:B13 D7:BV7 B15 D15 D8:J13 L8:BV13 K8:K20 B22:BV121">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="11" priority="29">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:J14 L14:XFD14 B21:XFD21 B16:J20 L16:XFD20">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$B14&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$K14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:BV21">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>N$3=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND($I14&lt;=N$3,$J14&gt;=N$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND($G14&lt;=N$3,$H14&gt;=N$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:BV21">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>WEEKDAY(N$3,1)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:J14 B21:BV21 B16:J20 L14:BV20 E15:J15">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$A14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B15&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$K15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B15&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$K15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11670,4 +11586,122 @@
   <pageSetup paperSize="8" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>